--- a/Juggling_Balls_BOM.xlsx
+++ b/Juggling_Balls_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Juggling Balls Parts</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Arduino Compatible pro mini</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/10PCS-2x4-Pin-8P-2-54mm-Double-Row-Female-Straight-Header-Pitch-Socket-Pin-Strip-/310727244114?pt=LH_DefaultDomain_0&amp;hash=item4858c97952</t>
+  </si>
+  <si>
+    <t>DIP 8P 2x4 Female header 2.54</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,16 +709,24 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>15</v>
       </c>
     </row>
